--- a/BackTest/2019-10-30 BackTest DVP.xlsx
+++ b/BackTest/2019-10-30 BackTest DVP.xlsx
@@ -1361,17 +1361,13 @@
         <v>12.48000000000003</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
@@ -1400,22 +1396,14 @@
         <v>12.46000000000003</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1443,22 +1431,14 @@
         <v>12.43500000000003</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1486,22 +1466,14 @@
         <v>12.41000000000003</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1529,22 +1501,14 @@
         <v>12.38500000000003</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1578,16 +1542,12 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="K33" t="n">
         <v>12.1</v>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1628,7 +1588,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -1664,14 +1624,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="K35" t="n">
         <v>12.1</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -1714,7 +1674,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -1836,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="K39" t="n">
         <v>12.1</v>
@@ -1879,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="K40" t="n">
         <v>12.1</v>
@@ -1922,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="K41" t="n">
         <v>12.1</v>
@@ -1959,14 +1919,12 @@
         <v>12.21500000000004</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>12.1</v>
       </c>
@@ -2002,14 +1960,12 @@
         <v>12.21000000000003</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>12.1</v>
       </c>
@@ -2045,14 +2001,12 @@
         <v>12.21000000000003</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>12.1</v>
       </c>
@@ -2088,14 +2042,12 @@
         <v>12.22000000000003</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>12.1</v>
       </c>
@@ -2131,14 +2083,12 @@
         <v>12.22500000000003</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>12.1</v>
       </c>
@@ -2174,14 +2124,12 @@
         <v>12.22500000000003</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>12.1</v>
       </c>
@@ -2217,14 +2165,12 @@
         <v>12.24000000000003</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>12.1</v>
       </c>
@@ -2260,14 +2206,12 @@
         <v>12.24500000000003</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>12.1</v>
       </c>
@@ -2303,14 +2247,12 @@
         <v>12.26000000000003</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>12.1</v>
       </c>
@@ -2346,14 +2288,12 @@
         <v>12.27500000000003</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>12.1</v>
       </c>
@@ -2389,14 +2329,12 @@
         <v>12.29000000000003</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>12.1</v>
       </c>
@@ -2432,14 +2370,12 @@
         <v>12.30000000000003</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>12.1</v>
       </c>
@@ -2475,14 +2411,12 @@
         <v>12.31000000000003</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>12.1</v>
       </c>
@@ -2518,14 +2452,12 @@
         <v>12.31500000000003</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>12.1</v>
       </c>
@@ -2561,14 +2493,12 @@
         <v>12.32000000000003</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>12.1</v>
       </c>
@@ -2604,14 +2534,12 @@
         <v>12.33500000000003</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>12.1</v>
       </c>
@@ -2647,14 +2575,12 @@
         <v>12.35500000000003</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>12.1</v>
       </c>
@@ -3592,14 +3518,12 @@
         <v>12.46500000000004</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>12.1</v>
       </c>
@@ -3635,14 +3559,12 @@
         <v>12.45500000000004</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>12.1</v>
       </c>
@@ -3678,14 +3600,12 @@
         <v>12.45000000000004</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>12.1</v>
       </c>
@@ -3721,14 +3641,12 @@
         <v>12.44500000000004</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>12.1</v>
       </c>
@@ -3764,14 +3682,12 @@
         <v>12.44000000000004</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>12.1</v>
       </c>
@@ -3807,14 +3723,12 @@
         <v>12.44000000000004</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>12.1</v>
       </c>
@@ -3850,14 +3764,12 @@
         <v>12.44000000000004</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>12.1</v>
       </c>
@@ -3893,14 +3805,12 @@
         <v>12.44000000000004</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>12.1</v>
       </c>
@@ -6068,14 +5978,12 @@
         <v>12.44500000000004</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
         <v>12.1</v>
       </c>
@@ -6111,14 +6019,12 @@
         <v>12.44000000000004</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
         <v>12.1</v>
       </c>
@@ -8822,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
@@ -8830,11 +8736,11 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>1.15202479338843</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -8866,10 +8772,16 @@
         <v>1</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M209" t="n">
-        <v>1</v>
+        <v>1.143760330578513</v>
       </c>
     </row>
     <row r="210">
@@ -8898,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>

--- a/BackTest/2019-10-30 BackTest DVP.xlsx
+++ b/BackTest/2019-10-30 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-984738.392</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-985755.7974</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>12.2</v>
@@ -521,7 +521,7 @@
         <v>-985755.7974</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>12.1</v>
@@ -562,7 +562,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>12.1</v>
@@ -603,7 +603,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>12.2</v>
@@ -640,7 +640,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>12.2</v>
@@ -681,7 +681,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>12.2</v>
@@ -722,7 +722,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>12.2</v>
@@ -759,7 +759,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>12.2</v>
@@ -800,11 +800,9 @@
         <v>-983755.7974</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>12.2</v>
       </c>
@@ -841,7 +839,7 @@
         <v>-983755.7974</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>12.2</v>
@@ -882,11 +880,9 @@
         <v>-983755.7974</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>12.2</v>
       </c>
@@ -923,11 +919,9 @@
         <v>-983755.7974</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>12.2</v>
       </c>
@@ -964,11 +958,9 @@
         <v>-983755.7974</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>12.2</v>
       </c>
@@ -1473,11 +1465,9 @@
         <v>-720858.4516000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>12.2</v>
       </c>
@@ -10913,7 +10903,7 @@
         <v>6084706.121298378</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
@@ -10921,15 +10911,13 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L270" t="n">
-        <v>1.126147540983607</v>
-      </c>
-      <c r="M270" t="n">
-        <v>1.016666666666667</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10954,11 +10942,17 @@
         <v>5853389.713498378</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10987,11 +10981,17 @@
         <v>5853389.713498378</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11020,11 +11020,17 @@
         <v>6289632.315298378</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11056,8 +11062,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11089,8 +11101,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11122,8 +11140,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11155,8 +11179,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11188,8 +11218,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11221,8 +11257,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11254,8 +11296,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11287,8 +11335,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11320,8 +11374,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11353,8 +11413,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11386,8 +11452,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11419,8 +11491,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11449,15 +11527,23 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+        <v>1.10155737704918</v>
+      </c>
+      <c r="M286" t="n">
+        <v>1.016666666666667</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11614,7 +11700,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11647,7 +11733,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11680,7 +11766,7 @@
         <v>5278436.795598377</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11713,7 +11799,7 @@
         <v>5278436.795598377</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11746,7 +11832,7 @@
         <v>5199518.794498377</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -12241,7 +12327,7 @@
         <v>4968528.954598378</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12274,7 +12360,7 @@
         <v>4943808.255698378</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12307,7 +12393,7 @@
         <v>4943808.255698378</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12340,7 +12426,7 @@
         <v>4943808.255698378</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12373,7 +12459,7 @@
         <v>4895543.605798379</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12406,7 +12492,7 @@
         <v>4895543.605798379</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12439,7 +12525,7 @@
         <v>4900581.272398379</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12472,7 +12558,7 @@
         <v>4900581.272398379</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12505,7 +12591,7 @@
         <v>4900591.272398379</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12538,7 +12624,7 @@
         <v>4900591.272398379</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12571,7 +12657,7 @@
         <v>5102006.260898379</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12604,7 +12690,7 @@
         <v>4722601.518898379</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12637,7 +12723,7 @@
         <v>4722601.518898379</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12670,7 +12756,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12703,7 +12789,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12736,7 +12822,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12769,7 +12855,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12802,7 +12888,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12835,7 +12921,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12868,7 +12954,7 @@
         <v>4823851.891798379</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12901,7 +12987,7 @@
         <v>4823851.891798379</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12934,7 +13020,7 @@
         <v>4823851.891798379</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12967,7 +13053,7 @@
         <v>4823851.891798379</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13000,7 +13086,7 @@
         <v>4885114.036298379</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13033,7 +13119,7 @@
         <v>4885114.036298379</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13066,7 +13152,7 @@
         <v>4746414.936598379</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13099,7 +13185,7 @@
         <v>4639754.857698379</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13132,7 +13218,7 @@
         <v>3918237.141498379</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13165,7 +13251,7 @@
         <v>4199404.883898379</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13198,7 +13284,7 @@
         <v>4199404.883898379</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13231,7 +13317,7 @@
         <v>3643628.71049838</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13264,7 +13350,7 @@
         <v>3643628.71049838</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13297,7 +13383,7 @@
         <v>3643638.71049838</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13330,7 +13416,7 @@
         <v>3643638.71049838</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13363,7 +13449,7 @@
         <v>3643638.71049838</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13396,7 +13482,7 @@
         <v>3649493.53999838</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13429,7 +13515,7 @@
         <v>3050068.70639838</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13462,7 +13548,7 @@
         <v>3355078.70639838</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13495,7 +13581,7 @@
         <v>3277547.83319838</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13528,7 +13614,7 @@
         <v>3277547.83319838</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13561,7 +13647,7 @@
         <v>3277547.83319838</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13594,7 +13680,7 @@
         <v>3277547.83319838</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13627,7 +13713,7 @@
         <v>2370869.99389838</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13660,7 +13746,7 @@
         <v>2370869.99389838</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13693,7 +13779,7 @@
         <v>2370869.99389838</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13726,7 +13812,7 @@
         <v>2443748.99389838</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13759,7 +13845,7 @@
         <v>2443848.99389838</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13792,7 +13878,7 @@
         <v>2367621.47139838</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13825,7 +13911,7 @@
         <v>2367621.47139838</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13858,7 +13944,7 @@
         <v>2367621.47139838</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13891,7 +13977,7 @@
         <v>2477892.789198379</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13924,7 +14010,7 @@
         <v>2477892.789198379</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13957,7 +14043,7 @@
         <v>2477892.789198379</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13990,7 +14076,7 @@
         <v>2477892.789198379</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14023,7 +14109,7 @@
         <v>2477912.789198379</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14056,7 +14142,7 @@
         <v>2477912.789198379</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14089,7 +14175,7 @@
         <v>2482406.789198379</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14188,7 +14274,7 @@
         <v>2518448.38009838</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14221,7 +14307,7 @@
         <v>2516554.48169838</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14881,7 +14967,7 @@
         <v>2757759.74939838</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14914,7 +15000,7 @@
         <v>2298547.036498379</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14947,7 +15033,7 @@
         <v>2298547.036498379</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -18126,6 +18212,6 @@
       <c r="M488" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest DVP.xlsx
+++ b/BackTest/2019-10-30 BackTest DVP.xlsx
@@ -484,10 +484,14 @@
         <v>-985755.7974</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-985755.7974</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-983755.7974</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-983755.7974</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-983755.7974</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-983755.7974</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>-983755.7974</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>-983755.7974</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>-983755.7974</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +841,19 @@
         <v>-983755.7974</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +882,19 @@
         <v>-983755.7974</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +923,19 @@
         <v>-983755.7974</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +964,19 @@
         <v>-983755.7974</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1005,19 @@
         <v>-983755.7974</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1046,19 @@
         <v>-983755.7974</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1087,19 @@
         <v>-983755.7974</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1128,19 @@
         <v>-820769.3178000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1169,19 @@
         <v>-820769.3178000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1210,19 @@
         <v>-712291.8736</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1251,19 @@
         <v>-711291.8736</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1292,19 @@
         <v>-745466.9065</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1333,19 @@
         <v>-614178.6465</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1374,19 @@
         <v>-625185.8348000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1415,19 @@
         <v>-625185.8348000001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1456,19 @@
         <v>-623196.3785000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1497,17 @@
         <v>-720858.4516000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1536,19 @@
         <v>-719269.7413000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1577,17 @@
         <v>-719269.7413000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1616,17 @@
         <v>-719269.7413000001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1655,17 @@
         <v>-568138.7509000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1694,17 @@
         <v>-568138.7509000001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1733,17 @@
         <v>-627705.1709000001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1772,17 @@
         <v>-627705.1709000001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1811,17 @@
         <v>-627705.1709000001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1850,17 @@
         <v>-627705.1709000001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1889,17 @@
         <v>18545.62269999983</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1928,17 @@
         <v>18545.62269999983</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1967,17 @@
         <v>17986.79429999983</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +2006,17 @@
         <v>25722.79429999983</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2045,17 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2084,17 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2123,17 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2162,17 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2201,17 @@
         <v>-296706.0566000002</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2240,17 @@
         <v>-296696.0566000002</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2279,17 @@
         <v>-296696.0566000002</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2318,17 @@
         <v>-313313.6183000002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2357,17 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2396,17 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2435,17 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2474,17 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2513,17 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2552,17 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2591,17 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2630,17 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2669,17 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2708,17 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2747,17 @@
         <v>-265248.1642000002</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2786,17 @@
         <v>-204908.4991000002</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2825,17 @@
         <v>-204908.4991000002</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2864,17 @@
         <v>-204908.4991000002</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2903,17 @@
         <v>-245229.9480000003</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2942,17 @@
         <v>-245229.9480000003</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2981,17 @@
         <v>-210797.3067000002</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +3020,17 @@
         <v>-210797.3067000002</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +3059,17 @@
         <v>-230797.3067000002</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +3098,17 @@
         <v>-257270.4853000002</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3140,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3179,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3218,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3257,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3296,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3335,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3374,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3413,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3452,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3491,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3530,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3569,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3608,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3647,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3686,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3725,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3764,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3803,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3842,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3881,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3920,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,15 +3956,17 @@
         <v>-1377992.2654</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3429,11 +3999,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3468,11 +4038,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -3506,8 +4076,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3539,8 +4115,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3572,8 +4154,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3605,8 +4193,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3638,8 +4232,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3668,15 +4268,17 @@
         <v>-1671631.2017</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>12</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3709,11 +4311,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3748,11 +4350,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3786,8 +4388,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3819,8 +4427,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3852,8 +4466,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3885,8 +4505,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3918,8 +4544,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3951,8 +4583,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3984,8 +4622,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4017,8 +4661,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4050,8 +4700,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4083,8 +4739,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4116,8 +4778,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4149,8 +4817,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4182,8 +4856,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4215,8 +4895,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4248,8 +4934,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4281,8 +4973,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4314,8 +5012,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4347,8 +5051,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4380,8 +5090,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4413,8 +5129,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4446,8 +5168,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4479,8 +5207,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4512,8 +5246,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4545,8 +5285,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4578,8 +5324,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4611,8 +5363,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4644,8 +5402,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4677,8 +5441,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4710,8 +5480,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4743,8 +5519,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4776,8 +5558,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4809,8 +5597,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4842,8 +5636,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4875,8 +5675,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4908,8 +5714,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4941,8 +5753,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4974,8 +5792,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5007,8 +5831,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5040,8 +5870,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5073,8 +5909,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5106,8 +5948,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5139,8 +5987,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5172,8 +6026,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5205,8 +6065,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5238,8 +6104,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5271,8 +6143,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5304,8 +6182,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5337,8 +6221,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5370,8 +6260,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5403,8 +6299,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5436,8 +6338,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5469,8 +6377,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5502,8 +6416,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5535,8 +6455,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5568,8 +6494,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5601,8 +6533,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5634,8 +6572,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5667,8 +6611,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5700,8 +6650,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5733,8 +6689,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5766,8 +6728,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5799,8 +6767,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5832,8 +6806,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5865,8 +6845,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5898,8 +6884,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5931,8 +6923,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5964,8 +6962,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5997,8 +7001,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6030,8 +7040,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6063,8 +7079,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6096,8 +7118,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6129,8 +7157,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6162,8 +7196,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6195,8 +7235,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6228,8 +7274,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6261,8 +7313,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6294,8 +7352,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6327,8 +7391,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6360,8 +7430,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6390,11 +7466,17 @@
         <v>-1892775.757000001</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6426,8 +7508,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6459,8 +7547,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6492,8 +7586,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6525,8 +7625,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6558,8 +7664,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6591,8 +7703,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6624,8 +7742,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6657,8 +7781,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6690,8 +7820,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6723,8 +7859,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6756,8 +7898,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6789,8 +7937,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6819,15 +7973,15 @@
         <v>-3097017.1826</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L194" t="n">
@@ -6858,12 +8012,12 @@
         <v>-3097017.1826</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6897,12 +8051,12 @@
         <v>-3097007.1826</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6936,12 +8090,12 @@
         <v>-3749291.4326</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6975,12 +8129,12 @@
         <v>-3749291.4326</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7014,12 +8168,12 @@
         <v>-3657000.666600001</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7053,12 +8207,12 @@
         <v>-3657000.666600001</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7092,12 +8246,12 @@
         <v>-3656800.666600001</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7131,12 +8285,12 @@
         <v>-3656800.666600001</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7170,12 +8324,12 @@
         <v>-3656800.666600001</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7212,7 +8366,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7249,7 +8405,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7286,7 +8444,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7320,12 +8480,12 @@
         <v>-3372942.149800001</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7362,7 +8522,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7399,7 +8561,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7436,7 +8600,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7473,7 +8639,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7510,7 +8678,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7547,7 +8717,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7584,7 +8756,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7621,7 +8795,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7658,7 +8834,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7695,7 +8873,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7732,7 +8912,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7769,7 +8951,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7806,7 +8990,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7843,7 +9029,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7880,7 +9068,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7917,7 +9107,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7954,7 +9146,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7991,7 +9185,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8028,7 +9224,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8065,7 +9263,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8099,16 +9299,20 @@
         <v>-1782598.071919532</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L228" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
       <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
@@ -8134,11 +9338,17 @@
         <v>-1087960.033719532</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8167,11 +9377,17 @@
         <v>-1417781.859319532</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8200,11 +9416,17 @@
         <v>-919782.9096195323</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8233,11 +9455,17 @@
         <v>-774531.1207195322</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8266,11 +9494,17 @@
         <v>-774531.1207195322</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8299,11 +9533,17 @@
         <v>-774531.1207195322</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8332,11 +9572,17 @@
         <v>-807756.5366195323</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8365,11 +9611,17 @@
         <v>-807756.5366195323</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8398,11 +9650,17 @@
         <v>-807756.5366195323</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8431,11 +9689,17 @@
         <v>-582304.7069195323</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8464,11 +9728,17 @@
         <v>-582304.7069195323</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8497,11 +9767,17 @@
         <v>-582304.7069195323</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8530,11 +9806,17 @@
         <v>-551227.1806195322</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8566,8 +9848,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8599,8 +9887,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8632,8 +9926,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8662,11 +9962,17 @@
         <v>-490823.0764195322</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8698,8 +10004,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8728,11 +10040,17 @@
         <v>-490823.0764195322</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8761,11 +10079,17 @@
         <v>-490823.0764195322</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8794,11 +10118,17 @@
         <v>-608306.2489195322</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8827,11 +10157,17 @@
         <v>-382105.1422195322</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8863,8 +10199,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8896,8 +10238,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8929,8 +10277,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8959,11 +10313,17 @@
         <v>-361637.6381195321</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8995,8 +10355,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9028,8 +10394,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9061,8 +10433,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9094,8 +10472,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9127,8 +10511,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9160,8 +10550,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9193,8 +10589,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9226,8 +10628,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9259,8 +10667,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9292,8 +10706,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9325,8 +10745,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9358,8 +10784,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9388,15 +10820,23 @@
         <v>6517516.276498378</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>1.142540983606558</v>
+      </c>
+      <c r="M267" t="n">
+        <v>1.016666666666667</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9421,7 +10861,7 @@
         <v>6123752.016098378</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9454,7 +10894,7 @@
         <v>6123752.016098378</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9487,7 +10927,7 @@
         <v>6084706.121298378</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9520,7 +10960,7 @@
         <v>5853389.713498378</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9553,7 +10993,7 @@
         <v>5853389.713498378</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9586,7 +11026,7 @@
         <v>6289632.315298378</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9619,7 +11059,7 @@
         <v>5752435.603498379</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9652,7 +11092,7 @@
         <v>5770866.210598378</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9685,7 +11125,7 @@
         <v>5770866.210598378</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9718,7 +11158,7 @@
         <v>4640559.183898378</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9850,7 +11290,7 @@
         <v>4818799.145798378</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10048,7 +11488,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10081,7 +11521,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10114,7 +11554,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10147,7 +11587,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10180,7 +11620,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10213,7 +11653,7 @@
         <v>5011382.950198377</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10246,7 +11686,7 @@
         <v>5278436.795598377</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10411,7 +11851,7 @@
         <v>5401881.707098378</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10444,7 +11884,7 @@
         <v>5401881.707098378</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10477,7 +11917,7 @@
         <v>5401881.707098378</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10510,7 +11950,7 @@
         <v>5644203.857298378</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10543,7 +11983,7 @@
         <v>5644203.857298378</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10576,7 +12016,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10609,7 +12049,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10642,7 +12082,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10675,7 +12115,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10708,7 +12148,7 @@
         <v>5013459.461898378</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10741,7 +12181,7 @@
         <v>4909249.961998378</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11104,7 +12544,7 @@
         <v>4900591.272398379</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11137,7 +12577,7 @@
         <v>5102006.260898379</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11170,7 +12610,7 @@
         <v>4722601.518898379</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11203,7 +12643,7 @@
         <v>4722601.518898379</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11236,7 +12676,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11269,7 +12709,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11302,7 +12742,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11335,7 +12775,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11368,7 +12808,7 @@
         <v>4721034.726498379</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11467,7 +12907,7 @@
         <v>4823851.891798379</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11500,7 +12940,7 @@
         <v>4823851.891798379</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11533,7 +12973,7 @@
         <v>4823851.891798379</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11566,7 +13006,7 @@
         <v>4885114.036298379</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11599,7 +13039,7 @@
         <v>4885114.036298379</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11632,7 +13072,7 @@
         <v>4746414.936598379</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11665,7 +13105,7 @@
         <v>4639754.857698379</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13447,7 +14887,7 @@
         <v>2757759.74939838</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13480,7 +14920,7 @@
         <v>2298547.036498379</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13513,7 +14953,7 @@
         <v>2298547.036498379</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13546,7 +14986,7 @@
         <v>2293272.226298379</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13579,7 +15019,7 @@
         <v>2293272.226298379</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13711,7 +15151,7 @@
         <v>2255295.95939838</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13744,7 +15184,7 @@
         <v>2255942.124798379</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14041,7 +15481,7 @@
         <v>1578882.501198379</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14074,7 +15514,7 @@
         <v>1578882.501198379</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14107,7 +15547,7 @@
         <v>1418241.845598379</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14140,7 +15580,7 @@
         <v>1418241.845598379</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14173,7 +15613,7 @@
         <v>1418241.845598379</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14206,7 +15646,7 @@
         <v>1418241.845598379</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
